--- a/2022/Symphony/MARCH/27.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/27.03.2022/MC Bank Statement March-2022.xlsx
@@ -3236,6 +3236,9 @@
     <xf numFmtId="1" fontId="33" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3382,9 +3385,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -4074,33 +4074,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="314"/>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
+      <c r="A1" s="315"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="315"/>
-      <c r="B2" s="312" t="s">
+      <c r="A2" s="316"/>
+      <c r="B2" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="315"/>
-      <c r="B3" s="313" t="s">
+      <c r="A3" s="316"/>
+      <c r="B3" s="314" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="315"/>
+      <c r="A4" s="316"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4118,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="315"/>
+      <c r="A5" s="316"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="315"/>
+      <c r="A6" s="316"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4148,7 +4148,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="315"/>
+      <c r="A7" s="316"/>
       <c r="B7" s="26" t="s">
         <v>58</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="315"/>
+      <c r="A8" s="316"/>
       <c r="B8" s="26" t="s">
         <v>59</v>
       </c>
@@ -4186,7 +4186,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="315"/>
+      <c r="A9" s="316"/>
       <c r="B9" s="26" t="s">
         <v>61</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="315"/>
+      <c r="A10" s="316"/>
       <c r="B10" s="26" t="s">
         <v>62</v>
       </c>
@@ -4224,7 +4224,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="315"/>
+      <c r="A11" s="316"/>
       <c r="B11" s="26" t="s">
         <v>63</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="315"/>
+      <c r="A12" s="316"/>
       <c r="B12" s="26" t="s">
         <v>64</v>
       </c>
@@ -4262,7 +4262,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="315"/>
+      <c r="A13" s="316"/>
       <c r="B13" s="26" t="s">
         <v>65</v>
       </c>
@@ -4281,7 +4281,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="315"/>
+      <c r="A14" s="316"/>
       <c r="B14" s="26" t="s">
         <v>66</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="315"/>
+      <c r="A15" s="316"/>
       <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
@@ -4319,7 +4319,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="315"/>
+      <c r="A16" s="316"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4332,7 +4332,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="315"/>
+      <c r="A17" s="316"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4345,7 +4345,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="315"/>
+      <c r="A18" s="316"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4358,7 +4358,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="315"/>
+      <c r="A19" s="316"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4371,7 +4371,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="315"/>
+      <c r="A20" s="316"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4384,7 +4384,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="315"/>
+      <c r="A21" s="316"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4397,7 +4397,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="315"/>
+      <c r="A22" s="316"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4410,7 +4410,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="315"/>
+      <c r="A23" s="316"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4423,7 +4423,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="315"/>
+      <c r="A24" s="316"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4436,7 +4436,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="315"/>
+      <c r="A25" s="316"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4449,7 +4449,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="315"/>
+      <c r="A26" s="316"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4462,7 +4462,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="315"/>
+      <c r="A27" s="316"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4475,7 +4475,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="315"/>
+      <c r="A28" s="316"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4488,7 +4488,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="315"/>
+      <c r="A29" s="316"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4501,7 +4501,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="315"/>
+      <c r="A30" s="316"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4514,7 +4514,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="315"/>
+      <c r="A31" s="316"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4527,7 +4527,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="315"/>
+      <c r="A32" s="316"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4540,7 +4540,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="315"/>
+      <c r="A33" s="316"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4553,7 +4553,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="315"/>
+      <c r="A34" s="316"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4566,7 +4566,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="315"/>
+      <c r="A35" s="316"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4579,7 +4579,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="315"/>
+      <c r="A36" s="316"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4592,7 +4592,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="315"/>
+      <c r="A37" s="316"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4605,7 +4605,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="315"/>
+      <c r="A38" s="316"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4618,7 +4618,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="315"/>
+      <c r="A39" s="316"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4631,7 +4631,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="315"/>
+      <c r="A40" s="316"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4644,7 +4644,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="315"/>
+      <c r="A41" s="316"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4657,7 +4657,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="315"/>
+      <c r="A42" s="316"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4670,7 +4670,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="315"/>
+      <c r="A43" s="316"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4683,7 +4683,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="315"/>
+      <c r="A44" s="316"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="315"/>
+      <c r="A45" s="316"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4709,7 +4709,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="315"/>
+      <c r="A46" s="316"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4722,7 +4722,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="315"/>
+      <c r="A47" s="316"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4735,7 +4735,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="315"/>
+      <c r="A48" s="316"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4748,7 +4748,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="315"/>
+      <c r="A49" s="316"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4761,7 +4761,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="315"/>
+      <c r="A50" s="316"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4774,7 +4774,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="315"/>
+      <c r="A51" s="316"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4787,7 +4787,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="315"/>
+      <c r="A52" s="316"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4800,7 +4800,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="315"/>
+      <c r="A53" s="316"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4813,7 +4813,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="315"/>
+      <c r="A54" s="316"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4826,7 +4826,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="315"/>
+      <c r="A55" s="316"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4838,7 +4838,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="315"/>
+      <c r="A56" s="316"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4850,7 +4850,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="315"/>
+      <c r="A57" s="316"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4862,7 +4862,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="315"/>
+      <c r="A58" s="316"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4874,7 +4874,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="315"/>
+      <c r="A59" s="316"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4886,7 +4886,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="315"/>
+      <c r="A60" s="316"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4898,7 +4898,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="315"/>
+      <c r="A61" s="316"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4910,7 +4910,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="315"/>
+      <c r="A62" s="316"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4922,7 +4922,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="315"/>
+      <c r="A63" s="316"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4934,7 +4934,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="315"/>
+      <c r="A64" s="316"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4946,7 +4946,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="315"/>
+      <c r="A65" s="316"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4958,7 +4958,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="315"/>
+      <c r="A66" s="316"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4970,7 +4970,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="315"/>
+      <c r="A67" s="316"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4982,7 +4982,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="315"/>
+      <c r="A68" s="316"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4994,7 +4994,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="315"/>
+      <c r="A69" s="316"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5006,7 +5006,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="315"/>
+      <c r="A70" s="316"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5018,7 +5018,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="315"/>
+      <c r="A71" s="316"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5030,7 +5030,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="315"/>
+      <c r="A72" s="316"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5042,7 +5042,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="315"/>
+      <c r="A73" s="316"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5054,7 +5054,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="315"/>
+      <c r="A74" s="316"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5066,7 +5066,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="315"/>
+      <c r="A75" s="316"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5078,7 +5078,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="315"/>
+      <c r="A76" s="316"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5090,7 +5090,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="315"/>
+      <c r="A77" s="316"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5102,7 +5102,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="315"/>
+      <c r="A78" s="316"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5114,7 +5114,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="315"/>
+      <c r="A79" s="316"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5126,7 +5126,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="315"/>
+      <c r="A80" s="316"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5138,7 +5138,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="315"/>
+      <c r="A81" s="316"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5150,7 +5150,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="315"/>
+      <c r="A82" s="316"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5162,7 +5162,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="315"/>
+      <c r="A83" s="316"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5219,33 +5219,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="314"/>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
+      <c r="A1" s="315"/>
+      <c r="B1" s="315"/>
+      <c r="C1" s="315"/>
+      <c r="D1" s="315"/>
+      <c r="E1" s="315"/>
+      <c r="F1" s="315"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="315"/>
-      <c r="B2" s="312" t="s">
+      <c r="A2" s="316"/>
+      <c r="B2" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="315"/>
-      <c r="B3" s="313" t="s">
+      <c r="A3" s="316"/>
+      <c r="B3" s="314" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="315"/>
+      <c r="A4" s="316"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5263,7 +5263,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="315"/>
+      <c r="A5" s="316"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5281,7 +5281,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="315"/>
+      <c r="A6" s="316"/>
       <c r="B6" s="26"/>
       <c r="C6" s="263"/>
       <c r="D6" s="263"/>
@@ -5293,7 +5293,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="315"/>
+      <c r="A7" s="316"/>
       <c r="B7" s="26" t="s">
         <v>189</v>
       </c>
@@ -5311,7 +5311,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="315"/>
+      <c r="A8" s="316"/>
       <c r="B8" s="26" t="s">
         <v>194</v>
       </c>
@@ -5329,7 +5329,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="315"/>
+      <c r="A9" s="316"/>
       <c r="B9" s="26" t="s">
         <v>200</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="315"/>
+      <c r="A10" s="316"/>
       <c r="B10" s="26" t="s">
         <v>203</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="315"/>
+      <c r="A11" s="316"/>
       <c r="B11" s="26" t="s">
         <v>208</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="315"/>
+      <c r="A12" s="316"/>
       <c r="B12" s="26" t="s">
         <v>211</v>
       </c>
@@ -5401,7 +5401,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="315"/>
+      <c r="A13" s="316"/>
       <c r="B13" s="26" t="s">
         <v>213</v>
       </c>
@@ -5419,7 +5419,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="315"/>
+      <c r="A14" s="316"/>
       <c r="B14" s="26" t="s">
         <v>214</v>
       </c>
@@ -5437,7 +5437,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="315"/>
+      <c r="A15" s="316"/>
       <c r="B15" s="26" t="s">
         <v>216</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="315"/>
+      <c r="A16" s="316"/>
       <c r="B16" s="26" t="s">
         <v>216</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="315"/>
+      <c r="A17" s="316"/>
       <c r="B17" s="26" t="s">
         <v>223</v>
       </c>
@@ -5495,7 +5495,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="315"/>
+      <c r="A18" s="316"/>
       <c r="B18" s="26" t="s">
         <v>225</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="315"/>
+      <c r="A19" s="316"/>
       <c r="B19" s="26" t="s">
         <v>226</v>
       </c>
@@ -5531,7 +5531,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="315"/>
+      <c r="A20" s="316"/>
       <c r="B20" s="26" t="s">
         <v>226</v>
       </c>
@@ -5551,7 +5551,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="315"/>
+      <c r="A21" s="316"/>
       <c r="B21" s="26" t="s">
         <v>227</v>
       </c>
@@ -5569,7 +5569,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="315"/>
+      <c r="A22" s="316"/>
       <c r="B22" s="26" t="s">
         <v>231</v>
       </c>
@@ -5587,7 +5587,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="315"/>
+      <c r="A23" s="316"/>
       <c r="B23" s="26" t="s">
         <v>232</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="315"/>
+      <c r="A24" s="316"/>
       <c r="B24" s="26" t="s">
         <v>236</v>
       </c>
@@ -5623,7 +5623,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="315"/>
+      <c r="A25" s="316"/>
       <c r="B25" s="26" t="s">
         <v>237</v>
       </c>
@@ -5641,7 +5641,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="315"/>
+      <c r="A26" s="316"/>
       <c r="B26" s="26" t="s">
         <v>239</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="315"/>
+      <c r="A27" s="316"/>
       <c r="B27" s="26" t="s">
         <v>242</v>
       </c>
@@ -5677,7 +5677,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="315"/>
+      <c r="A28" s="316"/>
       <c r="B28" s="26" t="s">
         <v>243</v>
       </c>
@@ -5697,7 +5697,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="315"/>
+      <c r="A29" s="316"/>
       <c r="B29" s="26" t="s">
         <v>247</v>
       </c>
@@ -5715,7 +5715,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="315"/>
+      <c r="A30" s="316"/>
       <c r="B30" s="26" t="s">
         <v>250</v>
       </c>
@@ -5733,7 +5733,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="315"/>
+      <c r="A31" s="316"/>
       <c r="B31" s="26"/>
       <c r="C31" s="263"/>
       <c r="D31" s="263"/>
@@ -5745,7 +5745,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="315"/>
+      <c r="A32" s="316"/>
       <c r="B32" s="26"/>
       <c r="C32" s="263"/>
       <c r="D32" s="263"/>
@@ -5757,7 +5757,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="315"/>
+      <c r="A33" s="316"/>
       <c r="B33" s="26"/>
       <c r="C33" s="263"/>
       <c r="D33" s="266"/>
@@ -5769,7 +5769,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="315"/>
+      <c r="A34" s="316"/>
       <c r="B34" s="26"/>
       <c r="C34" s="263"/>
       <c r="D34" s="263"/>
@@ -5781,7 +5781,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="315"/>
+      <c r="A35" s="316"/>
       <c r="B35" s="26"/>
       <c r="C35" s="263"/>
       <c r="D35" s="263"/>
@@ -5793,7 +5793,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="315"/>
+      <c r="A36" s="316"/>
       <c r="B36" s="26"/>
       <c r="C36" s="263"/>
       <c r="D36" s="263"/>
@@ -5805,7 +5805,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="315"/>
+      <c r="A37" s="316"/>
       <c r="B37" s="26"/>
       <c r="C37" s="263"/>
       <c r="D37" s="263"/>
@@ -5817,7 +5817,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="315"/>
+      <c r="A38" s="316"/>
       <c r="B38" s="26"/>
       <c r="C38" s="263"/>
       <c r="D38" s="263"/>
@@ -5829,7 +5829,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="315"/>
+      <c r="A39" s="316"/>
       <c r="B39" s="26"/>
       <c r="C39" s="263"/>
       <c r="D39" s="263"/>
@@ -5841,7 +5841,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="315"/>
+      <c r="A40" s="316"/>
       <c r="B40" s="26"/>
       <c r="C40" s="263"/>
       <c r="D40" s="263"/>
@@ -5853,7 +5853,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="315"/>
+      <c r="A41" s="316"/>
       <c r="B41" s="26"/>
       <c r="C41" s="263"/>
       <c r="D41" s="263"/>
@@ -5865,7 +5865,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="315"/>
+      <c r="A42" s="316"/>
       <c r="B42" s="26"/>
       <c r="C42" s="263"/>
       <c r="D42" s="263"/>
@@ -5877,7 +5877,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="315"/>
+      <c r="A43" s="316"/>
       <c r="B43" s="26"/>
       <c r="C43" s="263"/>
       <c r="D43" s="263"/>
@@ -5889,7 +5889,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="315"/>
+      <c r="A44" s="316"/>
       <c r="B44" s="26"/>
       <c r="C44" s="263"/>
       <c r="D44" s="263"/>
@@ -5901,7 +5901,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="315"/>
+      <c r="A45" s="316"/>
       <c r="B45" s="26"/>
       <c r="C45" s="263"/>
       <c r="D45" s="263"/>
@@ -5913,7 +5913,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="315"/>
+      <c r="A46" s="316"/>
       <c r="B46" s="26"/>
       <c r="C46" s="263"/>
       <c r="D46" s="263"/>
@@ -5925,7 +5925,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="315"/>
+      <c r="A47" s="316"/>
       <c r="B47" s="26"/>
       <c r="C47" s="263"/>
       <c r="D47" s="263"/>
@@ -5937,7 +5937,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="315"/>
+      <c r="A48" s="316"/>
       <c r="B48" s="26"/>
       <c r="C48" s="263"/>
       <c r="D48" s="263"/>
@@ -5949,7 +5949,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="315"/>
+      <c r="A49" s="316"/>
       <c r="B49" s="26"/>
       <c r="C49" s="263"/>
       <c r="D49" s="263"/>
@@ -5961,7 +5961,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="315"/>
+      <c r="A50" s="316"/>
       <c r="B50" s="26"/>
       <c r="C50" s="263"/>
       <c r="D50" s="263"/>
@@ -5973,7 +5973,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="315"/>
+      <c r="A51" s="316"/>
       <c r="B51" s="26"/>
       <c r="C51" s="263"/>
       <c r="D51" s="263"/>
@@ -5985,7 +5985,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="315"/>
+      <c r="A52" s="316"/>
       <c r="B52" s="26"/>
       <c r="C52" s="263"/>
       <c r="D52" s="263"/>
@@ -5997,7 +5997,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="315"/>
+      <c r="A53" s="316"/>
       <c r="B53" s="26"/>
       <c r="C53" s="263"/>
       <c r="D53" s="263"/>
@@ -6009,7 +6009,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="315"/>
+      <c r="A54" s="316"/>
       <c r="B54" s="26"/>
       <c r="C54" s="263"/>
       <c r="D54" s="263"/>
@@ -6021,7 +6021,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="315"/>
+      <c r="A55" s="316"/>
       <c r="B55" s="26"/>
       <c r="C55" s="263"/>
       <c r="D55" s="263"/>
@@ -6032,7 +6032,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="315"/>
+      <c r="A56" s="316"/>
       <c r="B56" s="26"/>
       <c r="C56" s="263"/>
       <c r="D56" s="263"/>
@@ -6043,7 +6043,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="315"/>
+      <c r="A57" s="316"/>
       <c r="B57" s="26"/>
       <c r="C57" s="263"/>
       <c r="D57" s="263"/>
@@ -6054,7 +6054,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="315"/>
+      <c r="A58" s="316"/>
       <c r="B58" s="26"/>
       <c r="C58" s="263"/>
       <c r="D58" s="263"/>
@@ -6065,7 +6065,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="315"/>
+      <c r="A59" s="316"/>
       <c r="B59" s="26"/>
       <c r="C59" s="263"/>
       <c r="D59" s="263"/>
@@ -6076,7 +6076,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="315"/>
+      <c r="A60" s="316"/>
       <c r="B60" s="26"/>
       <c r="C60" s="263"/>
       <c r="D60" s="263"/>
@@ -6087,7 +6087,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="315"/>
+      <c r="A61" s="316"/>
       <c r="B61" s="26"/>
       <c r="C61" s="263"/>
       <c r="D61" s="263"/>
@@ -6098,7 +6098,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="315"/>
+      <c r="A62" s="316"/>
       <c r="B62" s="26"/>
       <c r="C62" s="263"/>
       <c r="D62" s="263"/>
@@ -6109,7 +6109,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="315"/>
+      <c r="A63" s="316"/>
       <c r="B63" s="26"/>
       <c r="C63" s="263"/>
       <c r="D63" s="263"/>
@@ -6120,7 +6120,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="315"/>
+      <c r="A64" s="316"/>
       <c r="B64" s="26"/>
       <c r="C64" s="263"/>
       <c r="D64" s="263"/>
@@ -6131,7 +6131,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="315"/>
+      <c r="A65" s="316"/>
       <c r="B65" s="26"/>
       <c r="C65" s="263"/>
       <c r="D65" s="263"/>
@@ -6142,7 +6142,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="315"/>
+      <c r="A66" s="316"/>
       <c r="B66" s="26"/>
       <c r="C66" s="263"/>
       <c r="D66" s="263"/>
@@ -6153,7 +6153,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="315"/>
+      <c r="A67" s="316"/>
       <c r="B67" s="26"/>
       <c r="C67" s="263"/>
       <c r="D67" s="263"/>
@@ -6164,7 +6164,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="315"/>
+      <c r="A68" s="316"/>
       <c r="B68" s="26"/>
       <c r="C68" s="263"/>
       <c r="D68" s="263"/>
@@ -6175,7 +6175,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="315"/>
+      <c r="A69" s="316"/>
       <c r="B69" s="26"/>
       <c r="C69" s="263"/>
       <c r="D69" s="263"/>
@@ -6186,7 +6186,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="315"/>
+      <c r="A70" s="316"/>
       <c r="B70" s="26"/>
       <c r="C70" s="263"/>
       <c r="D70" s="263"/>
@@ -6197,7 +6197,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="315"/>
+      <c r="A71" s="316"/>
       <c r="B71" s="26"/>
       <c r="C71" s="263"/>
       <c r="D71" s="263"/>
@@ -6208,7 +6208,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="315"/>
+      <c r="A72" s="316"/>
       <c r="B72" s="26"/>
       <c r="C72" s="263"/>
       <c r="D72" s="263"/>
@@ -6219,7 +6219,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="315"/>
+      <c r="A73" s="316"/>
       <c r="B73" s="26"/>
       <c r="C73" s="263"/>
       <c r="D73" s="263"/>
@@ -6230,7 +6230,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="315"/>
+      <c r="A74" s="316"/>
       <c r="B74" s="26"/>
       <c r="C74" s="263"/>
       <c r="D74" s="263"/>
@@ -6241,7 +6241,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="315"/>
+      <c r="A75" s="316"/>
       <c r="B75" s="26"/>
       <c r="C75" s="263"/>
       <c r="D75" s="263"/>
@@ -6252,7 +6252,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="315"/>
+      <c r="A76" s="316"/>
       <c r="B76" s="26"/>
       <c r="C76" s="263"/>
       <c r="D76" s="263"/>
@@ -6263,7 +6263,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="315"/>
+      <c r="A77" s="316"/>
       <c r="B77" s="26"/>
       <c r="C77" s="263"/>
       <c r="D77" s="263"/>
@@ -6274,7 +6274,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="315"/>
+      <c r="A78" s="316"/>
       <c r="B78" s="26"/>
       <c r="C78" s="263"/>
       <c r="D78" s="263"/>
@@ -6285,7 +6285,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="315"/>
+      <c r="A79" s="316"/>
       <c r="B79" s="26"/>
       <c r="C79" s="263"/>
       <c r="D79" s="263"/>
@@ -6297,7 +6297,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="315"/>
+      <c r="A80" s="316"/>
       <c r="B80" s="26"/>
       <c r="C80" s="263"/>
       <c r="D80" s="263"/>
@@ -6309,7 +6309,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="315"/>
+      <c r="A81" s="316"/>
       <c r="B81" s="26"/>
       <c r="C81" s="263"/>
       <c r="D81" s="263"/>
@@ -6321,7 +6321,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="315"/>
+      <c r="A82" s="316"/>
       <c r="B82" s="26"/>
       <c r="C82" s="263"/>
       <c r="D82" s="263"/>
@@ -6333,7 +6333,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="315"/>
+      <c r="A83" s="316"/>
       <c r="B83" s="31"/>
       <c r="C83" s="265">
         <f>SUM(C5:C72)</f>
@@ -6401,67 +6401,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
-      <c r="G1" s="320"/>
-      <c r="H1" s="320"/>
-      <c r="I1" s="320"/>
-      <c r="J1" s="320"/>
-      <c r="K1" s="320"/>
-      <c r="L1" s="320"/>
-      <c r="M1" s="320"/>
-      <c r="N1" s="320"/>
-      <c r="O1" s="320"/>
-      <c r="P1" s="320"/>
-      <c r="Q1" s="320"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="321"/>
+      <c r="K1" s="321"/>
+      <c r="L1" s="321"/>
+      <c r="M1" s="321"/>
+      <c r="N1" s="321"/>
+      <c r="O1" s="321"/>
+      <c r="P1" s="321"/>
+      <c r="Q1" s="321"/>
     </row>
     <row r="2" spans="1:24" s="70" customFormat="1" ht="18">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="322" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="321"/>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="321"/>
-      <c r="J2" s="321"/>
-      <c r="K2" s="321"/>
-      <c r="L2" s="321"/>
-      <c r="M2" s="321"/>
-      <c r="N2" s="321"/>
-      <c r="O2" s="321"/>
-      <c r="P2" s="321"/>
-      <c r="Q2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
+      <c r="G2" s="322"/>
+      <c r="H2" s="322"/>
+      <c r="I2" s="322"/>
+      <c r="J2" s="322"/>
+      <c r="K2" s="322"/>
+      <c r="L2" s="322"/>
+      <c r="M2" s="322"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
+      <c r="Q2" s="322"/>
     </row>
     <row r="3" spans="1:24" s="71" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="322" t="s">
+      <c r="A3" s="323" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="323"/>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
-      <c r="G3" s="323"/>
-      <c r="H3" s="323"/>
-      <c r="I3" s="323"/>
-      <c r="J3" s="323"/>
-      <c r="K3" s="323"/>
-      <c r="L3" s="323"/>
-      <c r="M3" s="323"/>
-      <c r="N3" s="323"/>
-      <c r="O3" s="323"/>
-      <c r="P3" s="323"/>
-      <c r="Q3" s="324"/>
+      <c r="B3" s="324"/>
+      <c r="C3" s="324"/>
+      <c r="D3" s="324"/>
+      <c r="E3" s="324"/>
+      <c r="F3" s="324"/>
+      <c r="G3" s="324"/>
+      <c r="H3" s="324"/>
+      <c r="I3" s="324"/>
+      <c r="J3" s="324"/>
+      <c r="K3" s="324"/>
+      <c r="L3" s="324"/>
+      <c r="M3" s="324"/>
+      <c r="N3" s="324"/>
+      <c r="O3" s="324"/>
+      <c r="P3" s="324"/>
+      <c r="Q3" s="325"/>
       <c r="S3" s="54"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6470,52 +6470,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="325" t="s">
+      <c r="A4" s="326" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="327" t="s">
+      <c r="B4" s="328" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="316" t="s">
+      <c r="C4" s="317" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="316" t="s">
+      <c r="D4" s="317" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="316" t="s">
+      <c r="E4" s="317" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="316" t="s">
+      <c r="F4" s="317" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="316" t="s">
+      <c r="G4" s="317" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="316" t="s">
+      <c r="H4" s="317" t="s">
         <v>238</v>
       </c>
-      <c r="I4" s="316" t="s">
+      <c r="I4" s="317" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="316" t="s">
+      <c r="J4" s="317" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="316" t="s">
+      <c r="K4" s="317" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="316" t="s">
+      <c r="L4" s="317" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="316" t="s">
+      <c r="M4" s="317" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="316" t="s">
+      <c r="N4" s="317" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="318" t="s">
+      <c r="O4" s="319" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="329" t="s">
+      <c r="P4" s="330" t="s">
         <v>70</v>
       </c>
       <c r="Q4" s="132" t="s">
@@ -6528,22 +6528,22 @@
       <c r="W4" s="74"/>
     </row>
     <row r="5" spans="1:24" s="72" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="326"/>
-      <c r="B5" s="328"/>
-      <c r="C5" s="317"/>
-      <c r="D5" s="317"/>
-      <c r="E5" s="317"/>
-      <c r="F5" s="317"/>
-      <c r="G5" s="317"/>
-      <c r="H5" s="317"/>
-      <c r="I5" s="317"/>
-      <c r="J5" s="317"/>
-      <c r="K5" s="317"/>
-      <c r="L5" s="317"/>
-      <c r="M5" s="317"/>
-      <c r="N5" s="317"/>
-      <c r="O5" s="319"/>
-      <c r="P5" s="330"/>
+      <c r="A5" s="327"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="318"/>
+      <c r="D5" s="318"/>
+      <c r="E5" s="318"/>
+      <c r="F5" s="318"/>
+      <c r="G5" s="318"/>
+      <c r="H5" s="318"/>
+      <c r="I5" s="318"/>
+      <c r="J5" s="318"/>
+      <c r="K5" s="318"/>
+      <c r="L5" s="318"/>
+      <c r="M5" s="318"/>
+      <c r="N5" s="318"/>
+      <c r="O5" s="320"/>
+      <c r="P5" s="331"/>
       <c r="Q5" s="133" t="s">
         <v>45</v>
       </c>
@@ -9763,11 +9763,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9782,6 +9777,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9823,14 +9823,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="336" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="336"/>
-      <c r="C1" s="336"/>
-      <c r="D1" s="336"/>
-      <c r="E1" s="336"/>
-      <c r="F1" s="337"/>
+      <c r="B1" s="337"/>
+      <c r="C1" s="337"/>
+      <c r="D1" s="337"/>
+      <c r="E1" s="337"/>
+      <c r="F1" s="338"/>
       <c r="G1" s="65"/>
       <c r="H1" s="65"/>
       <c r="I1" s="149"/>
@@ -9924,14 +9924,14 @@
       <c r="CS1" s="144"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="338" t="s">
+      <c r="A2" s="339" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="340"/>
+      <c r="B2" s="340"/>
+      <c r="C2" s="340"/>
+      <c r="D2" s="340"/>
+      <c r="E2" s="340"/>
+      <c r="F2" s="341"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
       <c r="I2" s="149"/>
@@ -10025,14 +10025,14 @@
       <c r="CS2" s="144"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="342" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="343"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="344"/>
       <c r="G3" s="65"/>
       <c r="H3" s="65"/>
       <c r="I3" s="149"/>
@@ -13495,12 +13495,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="139"/>
-      <c r="B35" s="333" t="s">
+      <c r="B35" s="334" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="333"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
       <c r="F35" s="140"/>
       <c r="G35" s="145"/>
       <c r="H35" s="145"/>
@@ -14381,10 +14381,10 @@
         <v>232</v>
       </c>
       <c r="F43" s="140"/>
-      <c r="G43" s="334"/>
-      <c r="H43" s="334"/>
-      <c r="I43" s="334"/>
-      <c r="J43" s="334"/>
+      <c r="G43" s="335"/>
+      <c r="H43" s="335"/>
+      <c r="I43" s="335"/>
+      <c r="J43" s="335"/>
       <c r="K43" s="65"/>
       <c r="L43" s="149"/>
       <c r="M43" s="65"/>
@@ -20088,7 +20088,7 @@
       <c r="CS90" s="144"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="361" t="s">
+      <c r="A91" s="312" t="s">
         <v>136</v>
       </c>
       <c r="B91" s="124" t="s">
@@ -23020,11 +23020,11 @@
       <c r="CS118" s="144"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="331" t="s">
+      <c r="A119" s="332" t="s">
         <v>31</v>
       </c>
-      <c r="B119" s="332"/>
-      <c r="C119" s="344"/>
+      <c r="B119" s="333"/>
+      <c r="C119" s="345"/>
       <c r="D119" s="221">
         <f>SUM(D37:D118)</f>
         <v>2532330</v>
@@ -23227,11 +23227,11 @@
       <c r="CS120" s="144"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="331" t="s">
+      <c r="A121" s="332" t="s">
         <v>32</v>
       </c>
-      <c r="B121" s="332"/>
-      <c r="C121" s="332"/>
+      <c r="B121" s="333"/>
+      <c r="C121" s="333"/>
       <c r="D121" s="221">
         <f>D119+M121</f>
         <v>2532330</v>
@@ -34469,7 +34469,7 @@
   <dimension ref="A1:Y217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34487,35 +34487,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="345" t="s">
+      <c r="A1" s="346" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="347"/>
+      <c r="B1" s="347"/>
+      <c r="C1" s="347"/>
+      <c r="D1" s="347"/>
+      <c r="E1" s="348"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="354" t="s">
+      <c r="A2" s="355" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="355"/>
-      <c r="C2" s="355"/>
-      <c r="D2" s="355"/>
-      <c r="E2" s="356"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="357"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="349" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="350"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="351"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34538,15 +34538,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="358" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="358"/>
+      <c r="B4" s="359"/>
       <c r="C4" s="276"/>
-      <c r="D4" s="359" t="s">
+      <c r="D4" s="360" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="360"/>
+      <c r="E4" s="361"/>
       <c r="F4" s="5"/>
       <c r="G4" s="46"/>
       <c r="H4" s="7"/>
@@ -35014,13 +35014,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="22.5">
-      <c r="A19" s="351" t="s">
+      <c r="A19" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="352"/>
-      <c r="C19" s="352"/>
-      <c r="D19" s="352"/>
-      <c r="E19" s="353"/>
+      <c r="B19" s="353"/>
+      <c r="C19" s="353"/>
+      <c r="D19" s="353"/>
+      <c r="E19" s="354"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7"/>
